--- a/biology/Zoologie/Espace_Rambouillet/Espace_Rambouillet.xlsx
+++ b/biology/Zoologie/Espace_Rambouillet/Espace_Rambouillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Espace Rambouillet est un lieu privilégié d'observations des animaux et de la forêt créé par l'Office national des forêts (ONF). Il se trouve dans la commune de Sonchamp (Yvelines), au cœur de la forêt de Rambouillet. Depuis 2023, il est géré par la société Wild Connexion.
@@ -512,7 +524,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut y trouver, entre autres :
 La « Forêt sauvage », un espace immersif de 180 hectares où l'on peut voir et croiser le chemin des biches, faons, sangliers, cerfs, rennes etc. ;
